--- a/biology/Zoologie/Chilabothrus_gracilis/Chilabothrus_gracilis.xlsx
+++ b/biology/Zoologie/Chilabothrus_gracilis/Chilabothrus_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilabothrus gracilis est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilabothrus gracilis est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1]. Elle se rencontre en République dominicaine et en Haïti.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre en République dominicaine et en Haïti.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 août 2013) :
 Chilabothrus gracilis gracilis Fischer, 1888
 Chilabothrus gracilis hapalus (Sheplan &amp; Schwartz, 1974)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin gracilis, « fin », lui a été donné en référence à sa morphologie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin gracilis, « fin », lui a été donné en référence à sa morphologie.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fischer, 1888 : Über eine Kollektion Reptilien und Amphibien von Hayti. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, vol. 5, p. 23-45 (texte intégral).
 Sheplan &amp; Schwartz, 1974 : Hispaniolan boas of the genus Epicrates (Serpentes, Boidae) and their Antillean relationships. Annals of the Carnegie Museum, vol. 45, p. 57-143.</t>
